--- a/src/test/resources/Demo1/Excel_data_for_project.xlsx
+++ b/src/test/resources/Demo1/Excel_data_for_project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16335" windowHeight="4560" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15855" windowHeight="4905" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="DP" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L14"/>
 </workbook>
 </file>
 
@@ -679,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
